--- a/Assets/Other/_技能.xlsx
+++ b/Assets/Other/_技能.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>技能是类似苦痛之环里魔法书一样的</t>
   </si>
@@ -45,7 +45,10 @@
     <t>姿态分为集体姿态和个人姿态，集体姿态相当于额外给随从加了个buff，随从自己没有姿态</t>
   </si>
   <si>
-    <t>防御</t>
+    <t>全力攻击</t>
+  </si>
+  <si>
+    <t>固守</t>
   </si>
   <si>
     <t>以下姿态：添加buff的，需要通过读书获取</t>
@@ -131,8 +134,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -159,6 +162,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -168,7 +178,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,45 +186,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,7 +202,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,6 +218,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,6 +238,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -267,23 +253,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,187 +301,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,24 +492,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -521,32 +506,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,8 +528,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,6 +581,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -597,10 +600,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +612,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1312,10 +1315,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1349,23 +1352,23 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="C10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1387,6 +1390,11 @@
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1413,97 +1421,97 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
